--- a/example-0002_dra_metadata.xlsx
+++ b/example-0002_dra_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sub2xml\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D738A0A-7F06-47C7-A5D4-FC44532518D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA851D-33CE-4E23-ADDF-2B556AC19C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -267,7 +267,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C1818EC9-AF14-4D2B-B775-82B798AE10AA}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{44C873B6-633B-4BD0-BD8B-64BEC51C528F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter Run accession(s). List more than one accession by delimiting "," (comma). Serial accessions can be specified by connecting start and end accessions with "-" (hyphen).
+Examples;
+"DRR000001"
+"DRR000001,DRR000003"
+"DRR000001-DRR000010"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C1818EC9-AF14-4D2B-B775-82B798AE10AA}">
       <text>
         <r>
           <rPr>
@@ -296,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{05F83AC4-B102-475C-824D-4FAF9E9AE49F}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{05F83AC4-B102-475C-824D-4FAF9E9AE49F}">
       <text>
         <r>
           <rPr>
@@ -316,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E3C27783-EBCC-49A7-AFD7-99A972A7DC6E}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{E3C27783-EBCC-49A7-AFD7-99A972A7DC6E}">
       <text>
         <r>
           <rPr>
@@ -332,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{78F649D0-4A30-4213-B444-7061F8521889}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{78F649D0-4A30-4213-B444-7061F8521889}">
       <text>
         <r>
           <rPr>
@@ -350,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9E424635-C0B9-40CF-8940-268BDF6A3258}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{9E424635-C0B9-40CF-8940-268BDF6A3258}">
       <text>
         <r>
           <rPr>
@@ -378,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{3D389C80-4B0A-4C92-B165-98A69DFD6404}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{3D389C80-4B0A-4C92-B165-98A69DFD6404}">
       <text>
         <r>
           <rPr>
@@ -400,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="303">
   <si>
     <t>Library Source</t>
   </si>
@@ -1179,9 +1198,6 @@
     <t>Analysis-4</t>
   </si>
   <si>
-    <t xml:space="preserve">primary metagenome </t>
-  </si>
-  <si>
     <t>Metagenomic assembly obtained from the bioreactor sludge metagenome BioSample: SAMD00325978-SAMD00325980</t>
   </si>
   <si>
@@ -1309,20 +1325,47 @@
   </si>
   <si>
     <t>tsv</t>
-  </si>
-  <si>
-    <t>2023-09-04 Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v1.6</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>This excel file is used to generate Submission, Experiment, Run and Analysis XMLs for DDBJ Sequence Read Archive (DRA) submission. 
 Analysis submission is optional.
 Analysis-only submission is NOT acceptable. Submit Analysis in a DRA Submission which has Run(s).
 Please see https://github.com/ddbj/submission-excel2xml for details.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DRR000001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DRR000003,DRR000004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DRR000005-DRR000010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DRR000021</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DRR000023</t>
+  </si>
+  <si>
+    <t>primary metagenome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2023-11-21 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v1.7</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1516,8 +1559,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFBFE4FF"/>
       <color rgb="FFFFCA80"/>
-      <color rgb="FFBFE4FF"/>
       <color rgb="FFD9E1F2"/>
     </mruColors>
   </colors>
@@ -1797,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -1809,17 +1852,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1844,7 +1887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -28711,9 +28754,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A084EBE-B9E6-49C5-8287-B9D52F90CFF5}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -28722,15 +28767,16 @@
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="81.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="14" t="s">
         <v>223</v>
       </c>
@@ -28746,26 +28792,29 @@
       <c r="E1" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="16" t="s">
         <v>230</v>
       </c>
@@ -28782,23 +28831,26 @@
         <v>234</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
         <v>239</v>
       </c>
@@ -28815,23 +28867,26 @@
         <v>242</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="16" t="s">
         <v>245</v>
       </c>
@@ -28848,152 +28903,163 @@
         <v>248</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="J4" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
         <v>251</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D5" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16" t="s">
+      <c r="L5" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="K5" s="16" t="s">
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="16" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="I6" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16" t="s">
+      <c r="L6" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="K6" s="16" t="s">
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="16" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="H7" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="16" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K7" s="16" t="s">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="16" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="H8" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="16" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>280</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -29007,13 +29073,13 @@
           <x14:formula1>
             <xm:f>Admin!$G$2:$G$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1002</xm:sqref>
+          <xm:sqref>D2:D9 D11:D1002</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F3CE291F-96BB-4DFB-BADA-03CE67A810C3}">
           <x14:formula1>
             <xm:f>Admin!$H$2:$H$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1002</xm:sqref>
+          <xm:sqref>H2:H9 H11:H1002</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -29061,10 +29127,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -29087,10 +29153,10 @@
         <v>167</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -29137,7 +29203,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>19</v>
@@ -29161,10 +29227,10 @@
         <v>24</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -29186,7 +29252,7 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -29208,7 +29274,7 @@
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -29227,7 +29293,7 @@
       <c r="E8" s="5"/>
       <c r="G8" s="18"/>
       <c r="H8" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -29246,7 +29312,7 @@
       <c r="E9" s="5"/>
       <c r="G9" s="18"/>
       <c r="H9" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -29266,7 +29332,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="18"/>
       <c r="H10" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -29284,7 +29350,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -29302,7 +29368,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/example-0002_dra_metadata.xlsx
+++ b/example-0002_dra_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sub2xml\submission-excel2xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA851D-33CE-4E23-ADDF-2B556AC19C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1061F2B7-CD37-41F6-AC4E-80613133F8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,8 +281,9 @@
           <t>Enter Run accession(s). List more than one accession by delimiting "," (comma). Serial accessions can be specified by connecting start and end accessions with "-" (hyphen).
 Examples;
 "DRR000001"
+"SRR000001"
 "DRR000001,DRR000003"
-"DRR000001-DRR000010"</t>
+"SRR000010-SRR000020"</t>
         </r>
       </text>
     </comment>
@@ -419,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="304">
   <si>
     <t>Library Source</t>
   </si>
@@ -1346,17 +1347,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>DRR000005-DRR000010</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DRR000021</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DRR000023</t>
-  </si>
-  <si>
     <t>primary metagenome</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1366,6 +1356,22 @@
   </si>
   <si>
     <t>v1.7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SRR000005-SRR000010</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ERR000023</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SRR1000213</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SRR1000005-SRR1000010</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1840,9 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -1852,12 +1856,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="52.8">
@@ -2205,7 +2209,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -28756,9 +28760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A084EBE-B9E6-49C5-8287-B9D52F90CFF5}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -28903,7 +28905,7 @@
         <v>248</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>249</v>
@@ -28927,7 +28929,7 @@
         <v>251</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>252</v>
@@ -28938,7 +28940,9 @@
       <c r="E5" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>303</v>
+      </c>
       <c r="G5" s="16" t="s">
         <v>255</v>
       </c>
@@ -28973,7 +28977,7 @@
         <v>263</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>264</v>
@@ -29043,7 +29047,7 @@
         <v>277</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>278</v>
